--- a/data/trans_bre/P15-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P15-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,79%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,41%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 2,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,09; 2,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 4,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,12; 6,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,28; 56,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,17; 40,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,62; 81,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,0; 124,77</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,04</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,0%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,86; -2,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,45; -1,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,91; -0,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,92; 0,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,75; -30,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,25; -13,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,89; -2,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,94; 5,8</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,18%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,21%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,41; 0,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,55; 3,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,91; 3,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,09; 1,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,55; 8,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,38; 102,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,96; 75,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,58; 56,28</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,78%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,4; -1,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,35; 0,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,64; 0,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,12; 1,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,0; -15,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,94; 3,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,5; 14,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,54; 22,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P15-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>54,41%</t>
+          <t>52,28%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 6,32</t>
+          <t>0,96; 6,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,0; 124,77</t>
+          <t>12,25; 120,46</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-20,0%</t>
+          <t>-19,76%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 0,28</t>
+          <t>-3,12; 0,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,94; 5,8</t>
+          <t>-45,61; 18,26</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-7,21%</t>
+          <t>-9,05%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 1,95</t>
+          <t>-3,13; 1,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-43,58; 56,28</t>
+          <t>-44,48; 55,46</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,89%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,21</t>
+          <t>-1,31; 1,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 22,77</t>
+          <t>-20,37; 36,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P15-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 2,4</t>
+          <t>-1,32; 2,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 2,76</t>
+          <t>-1,85; 2,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 4,1</t>
+          <t>-0,85; 4,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 6,26</t>
+          <t>0,98; 5,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-22,28; 56,65</t>
+          <t>-20,17; 53,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,17; 40,92</t>
+          <t>-19,67; 43,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 81,56</t>
+          <t>-12,82; 84,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,25; 120,46</t>
+          <t>9,08; 110,37</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,86; -2,38</t>
+          <t>-5,68; -2,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,45; -1,15</t>
+          <t>-4,62; -1,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,91; -0,21</t>
+          <t>-2,94; -0,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 0,93</t>
+          <t>-3,22; 0,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-59,75; -30,36</t>
+          <t>-59,14; -28,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,25; -13,02</t>
+          <t>-44,46; -12,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-43,89; -2,67</t>
+          <t>-44,86; -0,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,61; 18,26</t>
+          <t>-46,11; 17,32</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 0,39</t>
+          <t>-5,54; 0,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 3,95</t>
+          <t>-2,23; 4,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 3,02</t>
+          <t>-3,03; 3,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 1,9</t>
+          <t>-3,05; 1,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-59,55; 8,36</t>
+          <t>-61,38; 17,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-38,38; 102,15</t>
+          <t>-33,15; 107,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-40,96; 75,99</t>
+          <t>-41,64; 77,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-44,48; 55,46</t>
+          <t>-44,85; 49,43</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,4; -1,08</t>
+          <t>-3,46; -1,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 0,25</t>
+          <t>-2,5; 0,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 0,75</t>
+          <t>-1,5; 0,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,74</t>
+          <t>-1,45; 1,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,0; -15,88</t>
+          <t>-42,52; -14,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 3,35</t>
+          <t>-27,16; 2,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,5; 14,28</t>
+          <t>-24,11; 14,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,37; 36,57</t>
+          <t>-21,33; 31,09</t>
         </is>
       </c>
     </row>
